--- a/va_facility_data_2025-02-20/Sam Rayburn Memorial Veterans Center - Facility Data.xlsx"; filename*=UTF-8''Sam%20Rayburn%20Memorial%20Veterans%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sam Rayburn Memorial Veterans Center - Facility Data.xlsx"; filename*=UTF-8''Sam%20Rayburn%20Memorial%20Veterans%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rcfab15f08ffa4740bb26b031e05d4a97"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8eaa1fba194d40a298a0f8f68483900b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R239544f193c34fa49e9d80d4fe79c9c4"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R8891cf0e69044eaa9818991986b87cce"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re558c6cb06e54428abceb07139acf127"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6f95f77f514d43539be992ae1596e201"/>
   </x:sheets>
 </x:workbook>
 </file>
